--- a/src/Samples/MasterTemplate.xlsx
+++ b/src/Samples/MasterTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675"/>
@@ -210,9 +210,6 @@
     <t xml:space="preserve">Apr'22 to June'22</t>
   </si>
   <si>
-    <t xml:space="preserve">Interest on Previous Dues @ 24% annum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sub Total</t>
   </si>
   <si>
@@ -305,15 +302,20 @@
   <si>
     <t xml:space="preserve">E. and O.E.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Interest on Previous Dues</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;for &quot;\ #&quot; days&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;@ &quot;\ #&quot;% per annum&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,13 +369,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -728,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -796,23 +791,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -823,6 +836,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -832,56 +902,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -892,36 +917,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -931,8 +926,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,107 +1305,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1424,8 +1429,8 @@
       <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1438,10 +1443,10 @@
       <c r="E11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="29">
         <v>44658</v>
       </c>
-      <c r="G11" s="53"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1454,10 +1459,10 @@
       <c r="E12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1468,10 +1473,10 @@
       <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="43">
         <v>44676</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1488,10 +1493,10 @@
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="23" t="s">
         <v>2</v>
       </c>
@@ -1510,10 +1515,10 @@
       <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="17">
         <v>997221</v>
       </c>
@@ -1521,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="17">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="G16" s="16">
         <f>F16*E16*3</f>
@@ -1533,13 +1538,13 @@
       <c r="A17" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="16">
         <v>0</v>
       </c>
@@ -1549,13 +1554,13 @@
       <c r="A18" s="15">
         <v>3</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="B18" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="16">
         <f>SUM(G16:G17)</f>
         <v>0</v>
@@ -1566,13 +1571,13 @@
       <c r="A19" s="15">
         <v>4</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="B19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="16">
         <f>IF(G18 &gt; 0, G18*0.09, 0)</f>
         <v>0</v>
@@ -1583,13 +1588,13 @@
       <c r="A20" s="15">
         <v>5</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="B20" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="16">
         <f>IF(G18 &gt; 0, G18*0.09, 0)</f>
         <v>0</v>
@@ -1600,13 +1605,13 @@
       <c r="A21" s="15">
         <v>6</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="16">
         <v>0</v>
       </c>
@@ -1616,15 +1621,17 @@
       <c r="A22" s="15">
         <v>7</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="B22" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="62">
+        <v>24</v>
+      </c>
+      <c r="F22" s="63"/>
       <c r="G22" s="16">
-        <f>IF(G21&gt;0, G21*0.24, 0)</f>
+        <f>IF(G21&gt;0, (G21*D22*E22/36500), 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
@@ -1633,13 +1640,13 @@
       <c r="A23" s="19">
         <v>8</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="20">
         <f>SUM(G18:G22)</f>
         <v>0</v>
@@ -1650,13 +1657,13 @@
       <c r="A24" s="19">
         <v>9</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="16">
         <f>G25-G23</f>
         <v>0</v>
@@ -1664,14 +1671,14 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="22">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
@@ -1680,64 +1687,64 @@
       <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="30"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="64"/>
+      <c r="A29" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="26"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="3" t="s">
         <v>26</v>
       </c>
@@ -1745,7 +1752,7 @@
     </row>
     <row r="31" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
@@ -1756,44 +1763,44 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="68"/>
       <c r="C35" s="68"/>
@@ -1804,24 +1811,43 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="70" t="s">
-        <v>42</v>
+      <c r="G37" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F10:G10"/>
@@ -1836,26 +1862,8 @@
     <mergeCell ref="A5:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B22:F22"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/Samples/MasterTemplate.xlsx
+++ b/src/Samples/MasterTemplate.xlsx
@@ -3,19 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\invoice-generator\src\Samples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCD1AA1-C765-44B6-8471-3E4671AF03D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -31,35 +37,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSN/SAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sq. Ft. Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Area Maintenance (CAM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous Dues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any Other  Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL AMOUNT PAYABLE BEFORE DUE DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMS &amp; CONDITIONS</t>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Particulars</t>
+  </si>
+  <si>
+    <t>HSN/SAC</t>
+  </si>
+  <si>
+    <t>Sq. Ft. Area</t>
+  </si>
+  <si>
+    <t>Common Area Maintenance (CAM)</t>
+  </si>
+  <si>
+    <t>Previous Dues</t>
+  </si>
+  <si>
+    <t>Any Other  Items</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT PAYABLE BEFORE DUE DATE</t>
+  </si>
+  <si>
+    <t>TERMS &amp; CONDITIONS</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Account Payee/DD:</t>
+      <t>Account Payee/DD:</t>
     </r>
     <r>
       <rPr>
@@ -73,11 +79,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">ESSEL TOWERS ORLOV COURT RWA. </t>
@@ -90,15 +96,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Acknowledgement</t>
+      <t>Acknowledgement</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -111,12 +117,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Payments above Rs.10,000/- will not be accepted in cash as per RBI Rules.</t>
+      <t>is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Payments above Rs.10,000/- will not be accepted in cash as per RBI Rules.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Discount:</t>
+      <t>Discount:</t>
     </r>
     <r>
       <rPr>
@@ -131,7 +137,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Outstanding Dues:</t>
+      <t>Outstanding Dues:</t>
     </r>
     <r>
       <rPr>
@@ -145,88 +151,88 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This is a system generated document and does not require a signature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAX-INVOICE: MAINTENANCE/CAM BILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN NO:   AABAE2761L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSTIN/UIN: 06AABAE276ILIZQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essel Towers
+    <t>This is a system generated document and does not require a signature.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Bill Date</t>
+  </si>
+  <si>
+    <t>Bill No</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Occupant</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>TAX-INVOICE: MAINTENANCE/CAM BILL</t>
+  </si>
+  <si>
+    <t>PAN NO:   AABAE2761L</t>
+  </si>
+  <si>
+    <t>GSTIN/UIN: 06AABAE276ILIZQ</t>
+  </si>
+  <si>
+    <t>Essel Towers
 Orlov Court Residents Welfare Association</t>
   </si>
   <si>
-    <t xml:space="preserve">NET BANKING-  NEFT/RTGS</t>
+    <t>NET BANKING-  NEFT/RTGS</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Name:  HDFC Bank </t>
   </si>
   <si>
-    <t xml:space="preserve">Account No:  50100493615262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFSC Code:  HDFC0009390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
+    <t>Account No:  50100493615262</t>
+  </si>
+  <si>
+    <t>IFSC Code:  HDFC0009390</t>
+  </si>
+  <si>
+    <t>Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
 Email: orlovcourtrwa@gmail.com. Tel 0124 4144748</t>
   </si>
   <si>
-    <t xml:space="preserve">Rs. Per Sq. Ft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount Payable (Rs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount (in words)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr'22 to June'22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Goods &amp; Services Tax @ 9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Goods &amp; Services Tax @ 9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total (3 to 7)</t>
+    <t>Rs. Per Sq. Ft</t>
+  </si>
+  <si>
+    <t>Amount Payable (Rs)</t>
+  </si>
+  <si>
+    <t>Amount (in words)</t>
+  </si>
+  <si>
+    <t>SNo</t>
+  </si>
+  <si>
+    <t>Apr'22 to June'22</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Round off</t>
+  </si>
+  <si>
+    <t>State Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t>Central Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t>Total (3 to 7)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Disputes:</t>
+      <t>Disputes:</t>
     </r>
     <r>
       <rPr>
@@ -240,11 +246,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -257,7 +263,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
+      <t>We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
     </r>
   </si>
   <si>
@@ -276,14 +282,14 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">orlovcourtrwa@gmail.com</t>
+      <t>orlovcourtrwa@gmail.com</t>
     </r>
     <r>
       <rPr>
@@ -297,13 +303,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E. and O.E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest on Previous Dues</t>
+    <t>ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA“</t>
+  </si>
+  <si>
+    <t>E. and O.E.</t>
+  </si>
+  <si>
+    <t>Interest on Previous Dues</t>
   </si>
 </sst>
 </file>
@@ -312,8 +318,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="&quot;for &quot;\ #&quot; days&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;@ &quot;\ #&quot;% per annum&quot;"/>
+    <numFmt numFmtId="167" formatCode="&quot;for &quot;#&quot; days&quot;;&quot;for &quot;\-#&quot; days&quot;;;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -721,7 +727,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -794,9 +800,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -937,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,11 +951,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1302,11 +1308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1320,93 +1326,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1429,8 +1435,8 @@
       <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1443,10 +1449,10 @@
       <c r="E11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>44658</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1459,10 +1465,10 @@
       <c r="E12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1473,10 +1479,10 @@
       <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <v>44676</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1493,10 +1499,10 @@
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="23" t="s">
         <v>2</v>
       </c>
@@ -1515,10 +1521,10 @@
       <c r="A16" s="15">
         <v>1</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="17">
         <v>997221</v>
       </c>
@@ -1538,13 +1544,13 @@
       <c r="A17" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="16">
         <v>0</v>
       </c>
@@ -1554,13 +1560,13 @@
       <c r="A18" s="15">
         <v>3</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="16">
         <f>SUM(G16:G17)</f>
         <v>0</v>
@@ -1571,13 +1577,13 @@
       <c r="A19" s="15">
         <v>4</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="16">
         <f>IF(G18 &gt; 0, G18*0.09, 0)</f>
         <v>0</v>
@@ -1588,13 +1594,13 @@
       <c r="A20" s="15">
         <v>5</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="16">
         <f>IF(G18 &gt; 0, G18*0.09, 0)</f>
         <v>0</v>
@@ -1605,13 +1611,13 @@
       <c r="A21" s="15">
         <v>6</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="16">
         <v>0</v>
       </c>
@@ -1621,15 +1627,17 @@
       <c r="A22" s="15">
         <v>7</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="62">
+      <c r="C22" s="37"/>
+      <c r="D22" s="73">
+        <v>0</v>
+      </c>
+      <c r="E22" s="61">
         <v>24</v>
       </c>
-      <c r="F22" s="63"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="16">
         <f>IF(G21&gt;0, (G21*D22*E22/36500), 0)</f>
         <v>0</v>
@@ -1640,13 +1648,13 @@
       <c r="A23" s="19">
         <v>8</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="20">
         <f>SUM(G18:G22)</f>
         <v>0</v>
@@ -1657,13 +1665,13 @@
       <c r="A24" s="19">
         <v>9</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="16">
         <f>G25-G23</f>
         <v>0</v>
@@ -1671,14 +1679,14 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="58"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="22">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
@@ -1687,139 +1695,139 @@
       <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="58"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="58"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="69"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
